--- a/Benchmark neurolab.xlsx
+++ b/Benchmark neurolab.xlsx
@@ -1,21 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unknown Chars différents" sheetId="1" r:id="rId1"/>
+    <sheet name="Unknown similaires" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>1er %</t>
+  </si>
+  <si>
+    <t>2eme %</t>
+  </si>
+  <si>
+    <t>3eme %</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,15 +140,3234 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unknown Chars différents'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1er %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unknown Chars différents'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unknown Chars différents'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.89</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unknown Chars différents'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2eme %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unknown Chars différents'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unknown Chars différents'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>42.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.8800000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unknown Chars différents'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3eme %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unknown Chars différents'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unknown Chars différents'!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="273650000"/>
+        <c:axId val="273646192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="273650000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273646192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273646192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273650000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unknown similaires'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1er %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unknown similaires'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unknown similaires'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unknown similaires'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2eme %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unknown similaires'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unknown similaires'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Unknown similaires'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3eme %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Unknown similaires'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Unknown similaires'!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="273652720"/>
+        <c:axId val="273637488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="273652720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273637488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273637488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273652720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +3413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +3448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +3656,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42.67</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>58.93</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26.79</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16.22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>70.69</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16.28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>52.33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>76.09</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19.57</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>39.58</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>83.08</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>59.15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>38.03</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>30.56</v>
+      </c>
+      <c r="C14" s="2">
+        <v>59.72</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>58.75</v>
+      </c>
+      <c r="C15" s="2">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>98.75</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="C18" s="2">
+        <v>52.63</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>95.18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16.36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>24.24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>48.48</v>
+      </c>
+      <c r="D22" s="2">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>97.89</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>40.32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>38.71</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>62.67</v>
+      </c>
+      <c r="C27" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>96.88</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2">
+        <v>63.89</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29.17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>58.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
+        <v>95.06</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>49.37</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>98.84</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="C36" s="2">
+        <v>61.11</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2">
+        <v>90.12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.33</v>
+      </c>
+      <c r="C2">
+        <v>13.33</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13.33</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33.33</v>
+      </c>
+      <c r="C4">
+        <v>37.04</v>
+      </c>
+      <c r="D4">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.56</v>
+      </c>
+      <c r="C5">
+        <v>30.77</v>
+      </c>
+      <c r="D5">
+        <v>48.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10.81</v>
+      </c>
+      <c r="D7">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.33</v>
+      </c>
+      <c r="C9">
+        <v>12.79</v>
+      </c>
+      <c r="D9">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11.96</v>
+      </c>
+      <c r="C10">
+        <v>36.96</v>
+      </c>
+      <c r="D10">
+        <v>45.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>60.42</v>
+      </c>
+      <c r="C11">
+        <v>39.58</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>18.46</v>
+      </c>
+      <c r="D12">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C13">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="D13">
+        <v>35.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>43.06</v>
+      </c>
+      <c r="C14">
+        <v>38.89</v>
+      </c>
+      <c r="D14">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>11.25</v>
+      </c>
+      <c r="C15">
+        <v>52.5</v>
+      </c>
+      <c r="D15">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3.75</v>
+      </c>
+      <c r="D16">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>13.33</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>1.75</v>
+      </c>
+      <c r="C18">
+        <v>22.81</v>
+      </c>
+      <c r="D18">
+        <v>73.680000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>83.13</v>
+      </c>
+      <c r="C19">
+        <v>15.66</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>9.09</v>
+      </c>
+      <c r="C21">
+        <v>27.27</v>
+      </c>
+      <c r="D21">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>95.45</v>
+      </c>
+      <c r="C22">
+        <v>4.55</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1.61</v>
+      </c>
+      <c r="C25">
+        <v>4.84</v>
+      </c>
+      <c r="D25">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>3.12</v>
+      </c>
+      <c r="C26">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="D26">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <v>2.67</v>
+      </c>
+      <c r="D27">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>29.69</v>
+      </c>
+      <c r="C28">
+        <v>48.44</v>
+      </c>
+      <c r="D28">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>95.65</v>
+      </c>
+      <c r="C29">
+        <v>2.9</v>
+      </c>
+      <c r="D29">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>2.78</v>
+      </c>
+      <c r="C30">
+        <v>13.89</v>
+      </c>
+      <c r="D30">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>74.36</v>
+      </c>
+      <c r="C31">
+        <v>25.64</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>1.27</v>
+      </c>
+      <c r="C33">
+        <v>12.66</v>
+      </c>
+      <c r="D33">
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>98.84</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>11.11</v>
+      </c>
+      <c r="D36">
+        <v>40.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>3.7</v>
+      </c>
+      <c r="C37">
+        <v>20.99</v>
+      </c>
+      <c r="D37">
+        <v>40.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>